--- a/DataCollectionAndResearch/DomainsToVisit.xlsx
+++ b/DataCollectionAndResearch/DomainsToVisit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\Code\cookiecollector2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\Code\cookiecollector2\DataCollectionAndResearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BDD29E-6CFC-44BA-A22C-5AA69E766C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5566F5-EEC3-4679-9B0F-16AC6552C499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15525" yWindow="-5445" windowWidth="14775" windowHeight="13680" xr2:uid="{D9B09DB0-BEEC-4B34-AF59-01C40413FDF6}"/>
+    <workbookView minimized="1" xWindow="-15525" yWindow="3360" windowWidth="14775" windowHeight="13680" xr2:uid="{D9B09DB0-BEEC-4B34-AF59-01C40413FDF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
   <si>
     <t>google.com</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>linkedin.com</t>
-  </si>
-  <si>
-    <t>microsoftonline.com</t>
   </si>
   <si>
     <t>nytimes.com</t>
@@ -1491,13 +1488,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1553,13 +1550,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1615,13 +1612,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1677,13 +1674,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1739,13 +1736,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1801,13 +1798,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1863,13 +1860,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1925,13 +1922,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1987,13 +1984,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2049,13 +2046,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2111,13 +2108,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2173,13 +2170,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2235,13 +2232,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2297,13 +2294,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2359,13 +2356,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2421,13 +2418,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2483,13 +2480,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2545,13 +2542,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2607,13 +2604,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2669,13 +2666,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2731,13 +2728,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2793,13 +2790,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2855,13 +2852,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2917,13 +2914,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2979,13 +2976,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3041,13 +3038,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3103,13 +3100,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3165,13 +3162,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3227,13 +3224,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3289,13 +3286,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3647,10 +3644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D0FD4-EC79-4B06-BBD3-42EBC68A262F}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3685,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C46" si="0">_xlfn.CONCAT("https://www.",B2)</f>
+        <f t="shared" ref="C2:C45" si="0">_xlfn.CONCAT("https://www.",B2)</f>
         <v>https://www.youtube.com</v>
       </c>
       <c r="D2" s="3" t="str">
@@ -3721,7 +3718,7 @@
         <v>https://www.amazon.com</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f t="shared" ref="D2:D46" si="1">HYPERLINK(C4)</f>
+        <f t="shared" ref="D4:D45" si="1">HYPERLINK(C4)</f>
         <v>https://www.amazon.com</v>
       </c>
     </row>
@@ -3921,16 +3918,16 @@
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.microsoftonline.com</v>
+        <v>https://www.nytimes.com</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.microsoftonline.com</v>
+        <v>https://www.nytimes.com</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3942,11 +3939,11 @@
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.nytimes.com</v>
+        <v>https://www.instructure.com</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.nytimes.com</v>
+        <v>https://www.instructure.com</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3958,27 +3955,27 @@
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.instructure.com</v>
+        <v>https://www.bing.com</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.instructure.com</v>
+        <v>https://www.bing.com</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.bing.com</v>
+        <v>https://www.live.com</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.bing.com</v>
+        <v>https://www.live.com</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3990,11 +3987,11 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.live.com</v>
+        <v>https://www.duckduckgo.com</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.live.com</v>
+        <v>https://www.duckduckgo.com</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4006,27 +4003,27 @@
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.duckduckgo.com</v>
+        <v>https://www.cnn.com</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.duckduckgo.com</v>
+        <v>https://www.cnn.com</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.cnn.com</v>
+        <v>https://www.netflix.com</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.cnn.com</v>
+        <v>https://www.netflix.com</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4038,11 +4035,11 @@
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.netflix.com</v>
+        <v>https://www.quora.com</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.netflix.com</v>
+        <v>https://www.quora.com</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4054,27 +4051,27 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.quora.com</v>
+        <v>https://www.tiktok.com</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.quora.com</v>
+        <v>https://www.tiktok.com</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>25</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.tiktok.com</v>
+        <v>https://www.pinterest.com</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.tiktok.com</v>
+        <v>https://www.pinterest.com</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4086,11 +4083,11 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.pinterest.com</v>
+        <v>https://www.etsy.com</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.pinterest.com</v>
+        <v>https://www.etsy.com</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4102,11 +4099,11 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.etsy.com</v>
+        <v>https://www.weather.com</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.etsy.com</v>
+        <v>https://www.weather.com</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4118,11 +4115,11 @@
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.weather.com</v>
+        <v>https://www.zillow.com</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.weather.com</v>
+        <v>https://www.zillow.com</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4134,11 +4131,11 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.zillow.com</v>
+        <v>https://www.usps.com</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.zillow.com</v>
+        <v>https://www.usps.com</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4150,11 +4147,11 @@
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.usps.com</v>
+        <v>https://www.foxnews.com</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.usps.com</v>
+        <v>https://www.foxnews.com</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4166,11 +4163,11 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.foxnews.com</v>
+        <v>https://www.msn.com</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.foxnews.com</v>
+        <v>https://www.msn.com</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4182,11 +4179,11 @@
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.msn.com</v>
+        <v>https://www.zoom.us</v>
       </c>
       <c r="D33" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.msn.com</v>
+        <v>https://www.zoom.us</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4198,11 +4195,11 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.zoom.us</v>
+        <v>https://www.roblox.com</v>
       </c>
       <c r="D34" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.zoom.us</v>
+        <v>https://www.roblox.com</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4214,11 +4211,11 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.roblox.com</v>
+        <v>https://www.aol.com</v>
       </c>
       <c r="D35" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.roblox.com</v>
+        <v>https://www.aol.com</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4230,11 +4227,11 @@
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.aol.com</v>
+        <v>https://www.fandom.com</v>
       </c>
       <c r="D36" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.aol.com</v>
+        <v>https://www.fandom.com</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4246,43 +4243,43 @@
       </c>
       <c r="C37" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.fandom.com</v>
+        <v>https://www.target.com</v>
       </c>
       <c r="D37" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.fandom.com</v>
+        <v>https://www.target.com</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.target.com</v>
+        <v>https://www.sharepoint.com</v>
       </c>
       <c r="D38" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.target.com</v>
+        <v>https://www.sharepoint.com</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>38</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.sharepoint.com</v>
+        <v>https://www.indeed.com</v>
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.sharepoint.com</v>
+        <v>https://www.indeed.com</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -4294,11 +4291,11 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.indeed.com</v>
+        <v>https://www.t-mobile.com</v>
       </c>
       <c r="D40" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.indeed.com</v>
+        <v>https://www.t-mobile.com</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -4310,11 +4307,11 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.t-mobile.com</v>
+        <v>https://www.paypal.com</v>
       </c>
       <c r="D41" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.t-mobile.com</v>
+        <v>https://www.paypal.com</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -4326,11 +4323,11 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.paypal.com</v>
+        <v>https://www.twitch.tv</v>
       </c>
       <c r="D42" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.paypal.com</v>
+        <v>https://www.twitch.tv</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -4342,11 +4339,11 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.twitch.tv</v>
+        <v>https://www.microsoft.com</v>
       </c>
       <c r="D43" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>https://www.twitch.tv</v>
+        <v>https://www.microsoft.com</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -4358,11 +4355,11 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.microsoft.com</v>
+        <v>https://www.homedepot.com</v>
       </c>
       <c r="D44" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>https://www.microsoft.com</v>
+        <f>HYPERLINK(C44)</f>
+        <v>https://www.homedepot.com</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -4374,25 +4371,9 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" si="0"/>
-        <v>https://www.homedepot.com</v>
+        <v>https://www.openai.com</v>
       </c>
       <c r="D45" s="3" t="str">
-        <f>HYPERLINK(C45)</f>
-        <v>https://www.homedepot.com</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" t="str">
-        <f t="shared" si="0"/>
-        <v>https://www.openai.com</v>
-      </c>
-      <c r="D46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>https://www.openai.com</v>
       </c>
@@ -4415,38 +4396,37 @@
     <hyperlink ref="A14" r:id="rId14" display="https://www.similarweb.com/website/espn.com/" xr:uid="{48ABFD29-714F-4B26-A0C0-4574EBF0A34E}"/>
     <hyperlink ref="A15" r:id="rId15" display="https://www.similarweb.com/website/walmart.com/" xr:uid="{DD0B2CD8-53F4-44F2-9DF9-F2D6E43555CE}"/>
     <hyperlink ref="A16" r:id="rId16" display="https://www.similarweb.com/website/linkedin.com/" xr:uid="{14ECE12F-C562-45E4-8E9F-64D9440E3AC8}"/>
-    <hyperlink ref="A17" r:id="rId17" display="https://www.similarweb.com/website/microsoftonline.com/" xr:uid="{B8B42ED3-9D20-4CC2-BD41-49713740D5DF}"/>
-    <hyperlink ref="A18" r:id="rId18" display="https://www.similarweb.com/website/nytimes.com/" xr:uid="{0B4ADAC8-982D-4E92-BC9D-ABF7AA4F8BA9}"/>
-    <hyperlink ref="A19" r:id="rId19" display="https://www.similarweb.com/website/instructure.com/" xr:uid="{291FB688-55F7-42BB-ABE2-A48E4C3A3DA0}"/>
-    <hyperlink ref="A20" r:id="rId20" display="https://www.similarweb.com/website/bing.com/" xr:uid="{3C8D9DD9-2C71-403B-A4BE-DB8EBE484214}"/>
-    <hyperlink ref="A21" r:id="rId21" display="https://www.similarweb.com/website/live.com/" xr:uid="{2BD4EA3B-509F-433D-9471-25F377802784}"/>
-    <hyperlink ref="A22" r:id="rId22" display="https://www.similarweb.com/website/duckduckgo.com/" xr:uid="{F025A851-6105-4691-B519-EAA618FE75A6}"/>
-    <hyperlink ref="A23" r:id="rId23" display="https://www.similarweb.com/website/cnn.com/" xr:uid="{59FF75D7-5C19-4C85-8F68-BC8056121BE2}"/>
-    <hyperlink ref="A24" r:id="rId24" display="https://www.similarweb.com/website/netflix.com/" xr:uid="{F992A307-30CD-4DBB-9A70-54CD69E7D954}"/>
-    <hyperlink ref="A25" r:id="rId25" display="https://www.similarweb.com/website/quora.com/" xr:uid="{DD76900E-08FF-41F8-981C-4DA057292CC5}"/>
-    <hyperlink ref="A26" r:id="rId26" display="https://www.similarweb.com/website/tiktok.com/" xr:uid="{56E8F3F1-0AC2-4C74-B7A5-7A703A7B88BA}"/>
-    <hyperlink ref="A27" r:id="rId27" display="https://www.similarweb.com/website/pinterest.com/" xr:uid="{8E366355-25A8-4DE1-B01A-E05300FEDB64}"/>
-    <hyperlink ref="A28" r:id="rId28" display="https://www.similarweb.com/website/etsy.com/" xr:uid="{6FEEBD30-087E-482D-ABA2-E629E4761E61}"/>
-    <hyperlink ref="A29" r:id="rId29" display="https://www.similarweb.com/website/weather.com/" xr:uid="{3014A6D3-DCB9-4DE9-B01C-2BAAA7530E88}"/>
-    <hyperlink ref="A30" r:id="rId30" display="https://www.similarweb.com/website/zillow.com/" xr:uid="{BB985267-0AF3-41F1-9428-2983465C885E}"/>
-    <hyperlink ref="A31" r:id="rId31" display="https://www.similarweb.com/website/usps.com/" xr:uid="{9C53856F-D799-4CC7-8B00-FD380DF2E352}"/>
-    <hyperlink ref="A32" r:id="rId32" display="https://www.similarweb.com/website/foxnews.com/" xr:uid="{3A7AB142-F23E-4B18-87AC-692A1EDB14B2}"/>
-    <hyperlink ref="A33" r:id="rId33" display="https://www.similarweb.com/website/msn.com/" xr:uid="{E5E560BA-BFEC-4F27-8036-C7C6AB065B2F}"/>
-    <hyperlink ref="A34" r:id="rId34" display="https://www.similarweb.com/website/zoom.us/" xr:uid="{A954E00D-A014-487A-9351-EA75F8E4B592}"/>
-    <hyperlink ref="A35" r:id="rId35" display="https://www.similarweb.com/website/roblox.com/" xr:uid="{AAB93D85-0F1D-484F-B970-DD4F4034629F}"/>
-    <hyperlink ref="A36" r:id="rId36" display="https://www.similarweb.com/website/aol.com/" xr:uid="{4363F4B8-14B9-4A5C-83C8-CB169DF70E0C}"/>
-    <hyperlink ref="A37" r:id="rId37" display="https://www.similarweb.com/website/fandom.com/" xr:uid="{4D7FD316-C21F-4971-A5A9-6DA80D9B9A56}"/>
-    <hyperlink ref="A38" r:id="rId38" display="https://www.similarweb.com/website/target.com/" xr:uid="{9C2E48D5-46E8-46C7-AB41-64ED1EAAF51B}"/>
-    <hyperlink ref="A39" r:id="rId39" display="https://www.similarweb.com/website/sharepoint.com/" xr:uid="{1BD55AD7-124A-42D6-9787-E0CAE441185A}"/>
-    <hyperlink ref="A40" r:id="rId40" display="https://www.similarweb.com/website/indeed.com/" xr:uid="{FA1189B3-C785-455F-BAC4-BE96926587E1}"/>
-    <hyperlink ref="A41" r:id="rId41" display="https://www.similarweb.com/website/t-mobile.com/" xr:uid="{ACD04E0B-1FAE-46C8-9B5A-A8B19B6569E1}"/>
-    <hyperlink ref="A42" r:id="rId42" display="https://www.similarweb.com/website/paypal.com/" xr:uid="{ECB7663B-F38A-4D35-98D7-CFA32D9166C0}"/>
-    <hyperlink ref="A43" r:id="rId43" display="https://www.similarweb.com/website/twitch.tv/" xr:uid="{064B89B6-B3E6-4E01-906C-B4C22E0C385A}"/>
-    <hyperlink ref="A44" r:id="rId44" display="https://www.similarweb.com/website/microsoft.com/" xr:uid="{55EC0859-79BB-450C-9131-6B88A57EC595}"/>
-    <hyperlink ref="A45" r:id="rId45" display="https://www.similarweb.com/website/homedepot.com/" xr:uid="{F437215B-6FDE-466C-B387-3C0AED4E557A}"/>
-    <hyperlink ref="A46" r:id="rId46" display="https://www.similarweb.com/website/openai.com/" xr:uid="{D6CC2048-4BA6-4A00-B9CD-CE8CA2CCAD5B}"/>
+    <hyperlink ref="A17" r:id="rId17" display="https://www.similarweb.com/website/nytimes.com/" xr:uid="{0B4ADAC8-982D-4E92-BC9D-ABF7AA4F8BA9}"/>
+    <hyperlink ref="A18" r:id="rId18" display="https://www.similarweb.com/website/instructure.com/" xr:uid="{291FB688-55F7-42BB-ABE2-A48E4C3A3DA0}"/>
+    <hyperlink ref="A19" r:id="rId19" display="https://www.similarweb.com/website/bing.com/" xr:uid="{3C8D9DD9-2C71-403B-A4BE-DB8EBE484214}"/>
+    <hyperlink ref="A20" r:id="rId20" display="https://www.similarweb.com/website/live.com/" xr:uid="{2BD4EA3B-509F-433D-9471-25F377802784}"/>
+    <hyperlink ref="A21" r:id="rId21" display="https://www.similarweb.com/website/duckduckgo.com/" xr:uid="{F025A851-6105-4691-B519-EAA618FE75A6}"/>
+    <hyperlink ref="A22" r:id="rId22" display="https://www.similarweb.com/website/cnn.com/" xr:uid="{59FF75D7-5C19-4C85-8F68-BC8056121BE2}"/>
+    <hyperlink ref="A23" r:id="rId23" display="https://www.similarweb.com/website/netflix.com/" xr:uid="{F992A307-30CD-4DBB-9A70-54CD69E7D954}"/>
+    <hyperlink ref="A24" r:id="rId24" display="https://www.similarweb.com/website/quora.com/" xr:uid="{DD76900E-08FF-41F8-981C-4DA057292CC5}"/>
+    <hyperlink ref="A25" r:id="rId25" display="https://www.similarweb.com/website/tiktok.com/" xr:uid="{56E8F3F1-0AC2-4C74-B7A5-7A703A7B88BA}"/>
+    <hyperlink ref="A26" r:id="rId26" display="https://www.similarweb.com/website/pinterest.com/" xr:uid="{8E366355-25A8-4DE1-B01A-E05300FEDB64}"/>
+    <hyperlink ref="A27" r:id="rId27" display="https://www.similarweb.com/website/etsy.com/" xr:uid="{6FEEBD30-087E-482D-ABA2-E629E4761E61}"/>
+    <hyperlink ref="A28" r:id="rId28" display="https://www.similarweb.com/website/weather.com/" xr:uid="{3014A6D3-DCB9-4DE9-B01C-2BAAA7530E88}"/>
+    <hyperlink ref="A29" r:id="rId29" display="https://www.similarweb.com/website/zillow.com/" xr:uid="{BB985267-0AF3-41F1-9428-2983465C885E}"/>
+    <hyperlink ref="A30" r:id="rId30" display="https://www.similarweb.com/website/usps.com/" xr:uid="{9C53856F-D799-4CC7-8B00-FD380DF2E352}"/>
+    <hyperlink ref="A31" r:id="rId31" display="https://www.similarweb.com/website/foxnews.com/" xr:uid="{3A7AB142-F23E-4B18-87AC-692A1EDB14B2}"/>
+    <hyperlink ref="A32" r:id="rId32" display="https://www.similarweb.com/website/msn.com/" xr:uid="{E5E560BA-BFEC-4F27-8036-C7C6AB065B2F}"/>
+    <hyperlink ref="A33" r:id="rId33" display="https://www.similarweb.com/website/zoom.us/" xr:uid="{A954E00D-A014-487A-9351-EA75F8E4B592}"/>
+    <hyperlink ref="A34" r:id="rId34" display="https://www.similarweb.com/website/roblox.com/" xr:uid="{AAB93D85-0F1D-484F-B970-DD4F4034629F}"/>
+    <hyperlink ref="A35" r:id="rId35" display="https://www.similarweb.com/website/aol.com/" xr:uid="{4363F4B8-14B9-4A5C-83C8-CB169DF70E0C}"/>
+    <hyperlink ref="A36" r:id="rId36" display="https://www.similarweb.com/website/fandom.com/" xr:uid="{4D7FD316-C21F-4971-A5A9-6DA80D9B9A56}"/>
+    <hyperlink ref="A37" r:id="rId37" display="https://www.similarweb.com/website/target.com/" xr:uid="{9C2E48D5-46E8-46C7-AB41-64ED1EAAF51B}"/>
+    <hyperlink ref="A38" r:id="rId38" display="https://www.similarweb.com/website/sharepoint.com/" xr:uid="{1BD55AD7-124A-42D6-9787-E0CAE441185A}"/>
+    <hyperlink ref="A39" r:id="rId39" display="https://www.similarweb.com/website/indeed.com/" xr:uid="{FA1189B3-C785-455F-BAC4-BE96926587E1}"/>
+    <hyperlink ref="A40" r:id="rId40" display="https://www.similarweb.com/website/t-mobile.com/" xr:uid="{ACD04E0B-1FAE-46C8-9B5A-A8B19B6569E1}"/>
+    <hyperlink ref="A41" r:id="rId41" display="https://www.similarweb.com/website/paypal.com/" xr:uid="{ECB7663B-F38A-4D35-98D7-CFA32D9166C0}"/>
+    <hyperlink ref="A42" r:id="rId42" display="https://www.similarweb.com/website/twitch.tv/" xr:uid="{064B89B6-B3E6-4E01-906C-B4C22E0C385A}"/>
+    <hyperlink ref="A43" r:id="rId43" display="https://www.similarweb.com/website/microsoft.com/" xr:uid="{55EC0859-79BB-450C-9131-6B88A57EC595}"/>
+    <hyperlink ref="A44" r:id="rId44" display="https://www.similarweb.com/website/homedepot.com/" xr:uid="{F437215B-6FDE-466C-B387-3C0AED4E557A}"/>
+    <hyperlink ref="A45" r:id="rId45" display="https://www.similarweb.com/website/openai.com/" xr:uid="{D6CC2048-4BA6-4A00-B9CD-CE8CA2CCAD5B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId47"/>
+  <drawing r:id="rId46"/>
 </worksheet>
 </file>